--- a/inputs/en/LiST countries/JOR_databook.xlsx
+++ b/inputs/en/LiST countries/JOR_databook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharindu.wickram\Desktop\LiST Optima bridge\App\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://burnetinstitute.sharepoint.com/sites/WG-Modelling-Nutrition/Shared Documents/Applications/WB multi_country/All_databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06954664-C443-43EB-B9A1-BA81C2C8A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{AEBAFB0C-4733-42D6-8B3F-9E5F0215BFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E23A2E-62D9-4FBC-8F68-0124AB1B587A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3670" windowWidth="19200" windowHeight="6530" tabRatio="961" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Program dependencies" sheetId="11" r:id="rId11"/>
     <sheet name="Reference programs" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="Incidence of conditions" sheetId="13" state="hidden" r:id="rId13"/>
-    <sheet name="Programs target population" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="Programs target population" sheetId="14" r:id="rId14"/>
     <sheet name="Cost curve options" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="Programs family planning" sheetId="16" state="hidden" r:id="rId16"/>
     <sheet name="Programs impacted population" sheetId="17" state="hidden" r:id="rId17"/>
@@ -136,7 +136,8 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Nick Scott:
-LiiST</t>
+LiiST
+https://databankfiles.worldbank.org/public/ddpext_download/poverty/33EF03BB-9722-4AE2-ABC7-AA2972D68AFE/Global_POVEQ_JOR.pdf</t>
         </r>
       </text>
     </comment>
@@ -1732,8 +1733,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -1746,8 +1746,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -1760,8 +1759,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -1774,8 +1772,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2366,8 +2363,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2380,8 +2376,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2394,8 +2389,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2408,8 +2402,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3011,8 +3004,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3025,8 +3017,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3039,8 +3030,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3053,8 +3043,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -4373,7 +4362,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Nick Scott:
-RRR = 0.49 (0.29-0.82) for mortality due to prematurity [Lawn et al. 2010, I J Emi 2010[67]]</t>
+Sivanandan &amp; Sankar 2023, neonatal RR 0.68 (0.53-0.86)</t>
         </r>
       </text>
     </comment>
@@ -5023,7 +5012,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Nick Scott:
-RRR = 0.49 (0.29-0.82) for mortality due to prematurity [Lawn et al. 2010, I J Emi 2010[67]]</t>
+Sivanandan &amp; Sankar 2023, neonatal RR 0.68 (0.53-0.86)</t>
         </r>
       </text>
     </comment>
@@ -5673,7 +5662,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Nick Scott:
-RRR = 0.49 (0.29-0.82) for mortality due to prematurity [Lawn et al. 2010, I J Emi 2010[67]]</t>
+Sivanandan &amp; Sankar 2023, neonatal RR 0.68 (0.53-0.86)</t>
         </r>
       </text>
     </comment>
@@ -9282,8 +9271,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9318,7 +9307,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="41">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -9327,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -9345,7 +9334,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="43">
-        <v>1198940.875</v>
+        <v>1164746.3046875</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9353,7 +9342,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="44">
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9503,7 +9492,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="45">
-        <v>0.238749956298834</v>
+        <v>0.259769272097435</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9511,7 +9500,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="99">
-        <v>0.11454702288442099</v>
+        <v>0.11570907979532</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9519,7 +9508,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="99">
-        <v>0.128764880782018</v>
+        <v>9.89832068757453E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9527,7 +9516,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="99">
-        <v>0.51793814003472693</v>
+        <v>0.52553844123149995</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9525,7 @@
       </c>
       <c r="C33" s="48">
         <f>SUM(C29:C32)</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9556,7 +9545,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="43">
-        <v>9.19152994281567</v>
+        <v>8.5367899999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9564,7 +9553,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="43">
-        <v>13.4086666338649</v>
+        <v>12.564450000000001</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
@@ -9574,7 +9563,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="43">
-        <v>15.586396466749299</v>
+        <v>14.59897</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -9584,7 +9573,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="100">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9600,7 +9589,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="43">
-        <v>8.8371057369999999</v>
+        <v>8.9987999999999992</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9617,7 +9606,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="45">
-        <v>1.00359E-2</v>
+        <v>7.3870999999999997E-3</v>
       </c>
       <c r="D45" s="12"/>
     </row>
@@ -9626,7 +9615,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="45">
-        <v>8.3963400000000007E-2</v>
+        <v>7.93735E-2</v>
       </c>
       <c r="D46" s="12"/>
     </row>
@@ -9635,7 +9624,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="45">
-        <v>7.7406499999999989E-2</v>
+        <v>7.3975899999999997E-2</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
@@ -9645,7 +9634,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="46">
-        <v>0.82859419999999995</v>
+        <v>0.83926349999999994</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -9786,7 +9775,7 @@
       </c>
       <c r="B1" s="22" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2021) coverage</v>
+        <v>Baseline (2024) coverage</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>161</v>
@@ -9809,7 +9798,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="45">
-        <v>0.36082986865522299</v>
+        <v>0.60556628363732301</v>
       </c>
       <c r="C2" s="98">
         <v>0.95</v>
@@ -10131,7 +10120,7 @@
         <v>181</v>
       </c>
       <c r="B16" s="45">
-        <v>0.56065306827768502</v>
+        <v>0.74292992086239096</v>
       </c>
       <c r="C16" s="98">
         <v>0.95</v>
@@ -10154,7 +10143,7 @@
         <v>182</v>
       </c>
       <c r="B17" s="98">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="C17" s="98">
         <v>0.95</v>
@@ -10292,7 +10281,7 @@
         <v>185</v>
       </c>
       <c r="B23" s="98">
-        <v>0.308</v>
+        <v>0.30520770000000003</v>
       </c>
       <c r="C23" s="98">
         <v>0.95</v>
@@ -10315,7 +10304,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="45">
-        <v>0.79525616871633498</v>
+        <v>0.87594477459050391</v>
       </c>
       <c r="C24" s="98">
         <v>0.95</v>
@@ -10384,7 +10373,7 @@
         <v>189</v>
       </c>
       <c r="B27" s="45">
-        <v>0.32913559241550799</v>
+        <v>0.58766823589181494</v>
       </c>
       <c r="C27" s="98">
         <v>0.95</v>
@@ -10545,7 +10534,7 @@
         <v>195</v>
       </c>
       <c r="B34" s="45">
-        <v>0.97339754139276191</v>
+        <v>0.9714488</v>
       </c>
       <c r="C34" s="98">
         <v>0.95</v>
@@ -10637,7 +10626,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="45">
-        <v>2.2872839999999998E-2</v>
+        <v>2.2872799999999999E-2</v>
       </c>
       <c r="C38" s="98">
         <v>0.95</v>
@@ -10660,7 +10649,7 @@
         <v>200</v>
       </c>
       <c r="B39" s="45">
-        <v>0.34953210000000001</v>
+        <v>0.34953200000000001</v>
       </c>
       <c r="C39" s="98">
         <v>0.95</v>
@@ -10693,8 +10682,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10717,7 +10706,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>179</v>
       </c>
@@ -10726,7 +10715,7 @@
       </c>
       <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>180</v>
       </c>
@@ -10735,7 +10724,7 @@
       </c>
       <c r="C3" s="47"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>191</v>
       </c>
@@ -10744,7 +10733,7 @@
       </c>
       <c r="C4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>188</v>
       </c>
@@ -10753,77 +10742,77 @@
       </c>
       <c r="C5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
@@ -10859,74 +10848,74 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
     </row>
   </sheetData>
@@ -10999,23 +10988,23 @@
       </c>
       <c r="B3" s="21">
         <f>frac_mam_1month * 2.6</f>
-        <v>7.0148817449808235E-2</v>
+        <v>7.0148779999999994E-2</v>
       </c>
       <c r="C3" s="21">
         <f>frac_mam_1_5months * 2.6</f>
-        <v>7.0148817449808235E-2</v>
+        <v>7.0148779999999994E-2</v>
       </c>
       <c r="D3" s="21">
         <f>frac_mam_6_11months * 2.6</f>
-        <v>2.7547737024724545E-2</v>
+        <v>2.7547780000000001E-2</v>
       </c>
       <c r="E3" s="21">
         <f>frac_mam_12_23months * 2.6</f>
-        <v>3.173911180347206E-2</v>
+        <v>3.1739240000000002E-2</v>
       </c>
       <c r="F3" s="21">
         <f>frac_mam_24_59months * 2.6</f>
-        <v>5.0128158926963783E-2</v>
+        <v>5.0128260000000008E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11024,23 +11013,23 @@
       </c>
       <c r="B4" s="21">
         <f>frac_sam_1month * 2.6</f>
-        <v>6.2171591073274544E-2</v>
+        <v>6.2171720000000007E-2</v>
       </c>
       <c r="C4" s="21">
         <f>frac_sam_1_5months * 2.6</f>
-        <v>6.2171591073274544E-2</v>
+        <v>6.2171720000000007E-2</v>
       </c>
       <c r="D4" s="21">
         <f>frac_sam_6_11months * 2.6</f>
-        <v>2.5362354703247637E-2</v>
+        <v>2.5362480000000003E-2</v>
       </c>
       <c r="E4" s="21">
         <f>frac_sam_12_23months * 2.6</f>
-        <v>1.5537999197840602E-2</v>
+        <v>1.5538120000000001E-2</v>
       </c>
       <c r="F4" s="21">
         <f>frac_sam_24_59months * 2.6</f>
-        <v>1.0299993865191941E-2</v>
+        <v>1.0299899999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11131,19 +11120,19 @@
       </c>
       <c r="D2" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E2" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F2" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G2" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H2" s="61">
         <v>0</v>
@@ -11270,11 +11259,11 @@
       </c>
       <c r="E5" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G5" s="60">
         <v>0</v>
@@ -11412,11 +11401,11 @@
       </c>
       <c r="E8" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F8" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G8" s="60">
         <v>0</v>
@@ -11458,11 +11447,11 @@
       </c>
       <c r="E9" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F9" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G9" s="60">
         <v>0</v>
@@ -11704,19 +11693,19 @@
       </c>
       <c r="H15" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I15" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J15" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K15" s="60">
         <f>food_insecure</f>
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L15" s="61">
         <v>0</v>
@@ -12145,19 +12134,19 @@
       </c>
       <c r="L25" s="60">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
-        <v>0.17104290542068504</v>
+        <v>0.18122781068420435</v>
       </c>
       <c r="M25" s="60">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49020999999999998</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="N25" s="60">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49020999999999998</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="O25" s="60">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49020999999999998</v>
+        <v>0.51939999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12193,19 +12182,19 @@
       </c>
       <c r="L26" s="60">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
-        <v>7.3304102323150738E-2</v>
+        <v>7.7669061721801852E-2</v>
       </c>
       <c r="M26" s="60">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21009</v>
+        <v>0.22259999999999999</v>
       </c>
       <c r="N26" s="60">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21009</v>
+        <v>0.22259999999999999</v>
       </c>
       <c r="O26" s="60">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21009</v>
+        <v>0.22259999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12241,19 +12230,19 @@
       </c>
       <c r="L27" s="60">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
-        <v>0.10457061005401624</v>
+        <v>9.0020745391845819E-2</v>
       </c>
       <c r="M27" s="60">
         <f>(1-food_insecure)*(0.3)</f>
-        <v>0.29969999999999997</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="N27" s="60">
         <f>(1-food_insecure)*(0.3)</f>
-        <v>0.29969999999999997</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="O27" s="60">
         <f>(1-food_insecure)*(0.3)</f>
-        <v>0.29969999999999997</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14870,8 +14859,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14925,7 +14914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>166</v>
       </c>
@@ -14942,7 +14931,7 @@
       <c r="J2" s="87"/>
       <c r="K2" s="87"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -14959,7 +14948,7 @@
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>169</v>
       </c>
@@ -14976,7 +14965,7 @@
       <c r="J4" s="87"/>
       <c r="K4" s="87"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>170</v>
       </c>
@@ -14993,7 +14982,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>171</v>
       </c>
@@ -15012,7 +15001,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>172</v>
       </c>
@@ -15031,7 +15020,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>173</v>
       </c>
@@ -15050,7 +15039,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>174</v>
       </c>
@@ -15069,7 +15058,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>175</v>
       </c>
@@ -15086,7 +15075,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>176</v>
       </c>
@@ -15103,7 +15092,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>177</v>
       </c>
@@ -15120,7 +15109,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="87"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>178</v>
       </c>
@@ -15137,7 +15126,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>179</v>
       </c>
@@ -15156,7 +15145,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>180</v>
       </c>
@@ -15175,7 +15164,7 @@
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>181</v>
       </c>
@@ -15196,7 +15185,7 @@
       <c r="J16" s="87"/>
       <c r="K16" s="87"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>182</v>
       </c>
@@ -15213,7 +15202,7 @@
       <c r="J17" s="87"/>
       <c r="K17" s="87"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -15232,7 +15221,7 @@
       <c r="J18" s="87"/>
       <c r="K18" s="87"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>151</v>
       </c>
@@ -15251,7 +15240,7 @@
       <c r="J19" s="87"/>
       <c r="K19" s="87"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>152</v>
       </c>
@@ -15270,7 +15259,7 @@
       <c r="J20" s="87"/>
       <c r="K20" s="87"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>183</v>
       </c>
@@ -15289,7 +15278,7 @@
       <c r="J21" s="87"/>
       <c r="K21" s="87"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>184</v>
       </c>
@@ -15626,7 +15615,7 @@
       <c r="K39" s="87"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r5uzVyzuX2cUXRUCd1eCp2cRQdoXMaTi7+j4lrtBEgwzDwwg07iN9Zvo/tiwSsVCYAFkOMHpp89HQAzExnqtEg==" saltValue="Yl6vtKysPUoNlkWylvJDXA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IvQDIxW99fzq1Zy0EhkbKUzL+Oo6JppYFJRusT7f1RK58axANCQbQrXBA4I5Zda1hiQSlfJ6FnKfxlkgJRWRpg==" saltValue="tOfPnYqP3Wy6+yrctBxWkQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15693,7 +15682,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
@@ -15722,7 +15711,7 @@
       <c r="J2" s="87"/>
       <c r="K2" s="87"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
@@ -15751,7 +15740,7 @@
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>78</v>
       </c>
@@ -15780,7 +15769,7 @@
       <c r="J4" s="87"/>
       <c r="K4" s="87"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>79</v>
       </c>
@@ -15809,7 +15798,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
@@ -15838,7 +15827,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>112</v>
       </c>
@@ -15859,7 +15848,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -15880,7 +15869,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -15901,7 +15890,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>115</v>
       </c>
@@ -15922,7 +15911,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>58</v>
       </c>
@@ -15943,7 +15932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -15962,7 +15951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
@@ -15981,7 +15970,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>61</v>
       </c>
@@ -16014,7 +16003,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16057,360 +16046,398 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>start_year</f>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="49">
-        <v>245958.62400000001</v>
+        <v>237620.72519999999</v>
       </c>
       <c r="C2" s="49">
-        <v>496000</v>
+        <v>504000</v>
       </c>
       <c r="D2" s="49">
-        <v>874000</v>
+        <v>879000</v>
       </c>
       <c r="E2" s="49">
-        <v>727000</v>
+        <v>734000</v>
       </c>
       <c r="F2" s="49">
-        <v>557000</v>
+        <v>588000</v>
       </c>
       <c r="G2" s="17">
-        <f t="shared" ref="G2:G11" si="0">C2+D2+E2+F2</f>
-        <v>2654000</v>
+        <f t="shared" ref="G2:G13" si="0">C2+D2+E2+F2</f>
+        <v>2705000</v>
       </c>
       <c r="H2" s="17">
-        <f t="shared" ref="H2:H11" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>281990.41548207204</v>
+        <f t="shared" ref="H2:H13" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
+        <v>272475.50392838713</v>
       </c>
       <c r="I2" s="17">
-        <f t="shared" ref="I2:I11" si="2">G2-H2</f>
-        <v>2372009.5845179278</v>
+        <f t="shared" ref="I2:I13" si="2">G2-H2</f>
+        <v>2432524.4960716129</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A40" si="3">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B3" s="49">
-        <v>243522.78200000001</v>
+        <v>234671.98</v>
       </c>
       <c r="C3" s="50">
-        <v>499000</v>
+        <v>507000</v>
       </c>
       <c r="D3" s="50">
-        <v>877000</v>
+        <v>882000</v>
       </c>
       <c r="E3" s="50">
-        <v>731000</v>
+        <v>737000</v>
       </c>
       <c r="F3" s="50">
-        <v>568000</v>
+        <v>597000</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" si="0"/>
-        <v>2675000</v>
+        <v>2723000</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" si="1"/>
-        <v>279197.73398768913</v>
+        <v>269094.22969967598</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" si="2"/>
-        <v>2395802.266012311</v>
+        <v>2453905.7703003241</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="3"/>
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="B4" s="49">
-        <v>240646.4344</v>
+        <v>232946.60399999999</v>
       </c>
       <c r="C4" s="50">
-        <v>502000</v>
+        <v>511000</v>
       </c>
       <c r="D4" s="50">
-        <v>878000</v>
+        <v>887000</v>
       </c>
       <c r="E4" s="50">
-        <v>733000</v>
+        <v>741000</v>
       </c>
       <c r="F4" s="50">
-        <v>578000</v>
+        <v>607000</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="0"/>
-        <v>2691000</v>
+        <v>2746000</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" si="1"/>
-        <v>275900.01487703552</v>
+        <v>267115.77140370768</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" si="2"/>
-        <v>2415099.9851229647</v>
+        <v>2478884.2285962924</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="B5" s="49">
-        <v>237620.72519999999</v>
+        <v>231424.416</v>
       </c>
       <c r="C5" s="50">
-        <v>504000</v>
+        <v>515000</v>
       </c>
       <c r="D5" s="50">
-        <v>879000</v>
+        <v>892000</v>
       </c>
       <c r="E5" s="50">
-        <v>734000</v>
+        <v>746000</v>
       </c>
       <c r="F5" s="50">
-        <v>588000</v>
+        <v>617000</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>2705000</v>
+        <v>2770000</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" si="1"/>
-        <v>272431.05338847259</v>
+        <v>265370.30521162931</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" si="2"/>
-        <v>2432568.9466115274</v>
+        <v>2504629.6947883707</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="B6" s="49">
-        <v>234671.98</v>
+        <v>230051.25</v>
       </c>
       <c r="C6" s="50">
-        <v>507000</v>
+        <v>520000</v>
       </c>
       <c r="D6" s="50">
-        <v>882000</v>
+        <v>899000</v>
       </c>
       <c r="E6" s="50">
-        <v>737000</v>
+        <v>752000</v>
       </c>
       <c r="F6" s="50">
-        <v>597000</v>
+        <v>627000</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="0"/>
-        <v>2723000</v>
+        <v>2798000</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="1"/>
-        <v>269050.3307670175</v>
+        <v>263795.71992445621</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" si="2"/>
-        <v>2453949.6692329827</v>
+        <v>2534204.2800755436</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="B7" s="49">
-        <v>232946.60399999999</v>
+        <v>228775.58799999999</v>
       </c>
       <c r="C7" s="50">
-        <v>511000</v>
+        <v>523000</v>
       </c>
       <c r="D7" s="50">
-        <v>887000</v>
+        <v>909000</v>
       </c>
       <c r="E7" s="50">
-        <v>741000</v>
+        <v>759000</v>
       </c>
       <c r="F7" s="50">
-        <v>607000</v>
+        <v>637000</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="0"/>
-        <v>2746000</v>
+        <v>2828000</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="1"/>
-        <v>267072.19522864826</v>
+        <v>262332.94075820397</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" si="2"/>
-        <v>2478927.8047713516</v>
+        <v>2565667.0592417959</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="3"/>
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="B8" s="49">
-        <v>231424.416</v>
+        <v>227589.486</v>
       </c>
       <c r="C8" s="50">
-        <v>515000</v>
+        <v>525000</v>
       </c>
       <c r="D8" s="50">
-        <v>892000</v>
+        <v>919000</v>
       </c>
       <c r="E8" s="50">
-        <v>746000</v>
+        <v>766000</v>
       </c>
       <c r="F8" s="50">
-        <v>617000</v>
+        <v>646000</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>2770000</v>
+        <v>2856000</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>265327.01378478954</v>
+        <v>260972.85846787159</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="2"/>
-        <v>2504672.9862152105</v>
+        <v>2595027.1415321282</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="3"/>
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="B9" s="49">
-        <v>230051.25</v>
+        <v>226156.45182857139</v>
       </c>
       <c r="C9" s="50">
-        <v>520000</v>
+        <v>528000</v>
       </c>
       <c r="D9" s="50">
-        <v>899000</v>
+        <v>924714.28571428568</v>
       </c>
       <c r="E9" s="50">
-        <v>752000</v>
+        <v>770571.42857142852</v>
       </c>
       <c r="F9" s="50">
-        <v>627000</v>
+        <v>654285.71428571432</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>2798000</v>
+        <v>2877571.4285714282</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="1"/>
-        <v>263752.68536902376</v>
+        <v>259329.62340208358</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="2"/>
-        <v>2534247.3146309764</v>
+        <v>2618241.8051693444</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="3"/>
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B10" s="49">
-        <v>228775.58799999999</v>
+        <v>224939.9478040816</v>
       </c>
       <c r="C10" s="50">
-        <v>523000</v>
+        <v>531000</v>
       </c>
       <c r="D10" s="50">
-        <v>909000</v>
+        <v>930816.32653061219</v>
       </c>
       <c r="E10" s="50">
-        <v>759000</v>
+        <v>775367.3469387755</v>
       </c>
       <c r="F10" s="50">
-        <v>637000</v>
+        <v>662469.38775510213</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="0"/>
-        <v>2828000</v>
+        <v>2899653.0612244895</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="1"/>
-        <v>262290.14483458537</v>
+        <v>257934.67964528472</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="2"/>
-        <v>2565709.8551654145</v>
+        <v>2641718.3815792049</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="B11" s="49">
-        <v>227589.486</v>
+        <v>223796.1397760933</v>
       </c>
       <c r="C11" s="50">
-        <v>525000</v>
+        <v>533857.14285714284</v>
       </c>
       <c r="D11" s="50">
-        <v>919000</v>
+        <v>937075.80174927111</v>
       </c>
       <c r="E11" s="50">
-        <v>766000</v>
+        <v>780276.96793002915</v>
       </c>
       <c r="F11" s="50">
-        <v>646000</v>
+        <v>670393.58600583102</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="0"/>
-        <v>2856000</v>
+        <v>2921603.4985422743</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>260930.28442251819</v>
+        <v>256623.09510836718</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="2"/>
-        <v>2595069.7155774818</v>
+        <v>2664980.4034339073</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+        <v>2034</v>
+      </c>
+      <c r="B12" s="49">
+        <v>222706.38602982089</v>
+      </c>
+      <c r="C12" s="50">
+        <v>536551.0204081632</v>
+      </c>
+      <c r="D12" s="50">
+        <v>943515.20199916698</v>
+      </c>
+      <c r="E12" s="50">
+        <v>785173.67763431906</v>
+      </c>
+      <c r="F12" s="50">
+        <v>678021.2411495212</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>2943261.1411911706</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="1"/>
+        <v>255373.49366504399</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="2"/>
+        <v>2687887.6475261264</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+        <v>2035</v>
+      </c>
+      <c r="B13" s="49">
+        <v>221657.11974836679</v>
+      </c>
+      <c r="C13" s="50">
+        <v>538915.4518950436</v>
+      </c>
+      <c r="D13" s="50">
+        <v>949874.51657047658</v>
+      </c>
+      <c r="E13" s="50">
+        <v>789912.77443922183</v>
+      </c>
+      <c r="F13" s="50">
+        <v>685309.9898851671</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>2964012.732789909</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="1"/>
+        <v>254170.31848512805</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="2"/>
+        <v>2709842.4143047808</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
@@ -16817,7 +16844,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b3zuR9hAPFKmhyUPgxSBwpwr0L8i4PvaW2CunfDaw9hwq0s+u3YPrQFKBT82DJ5eJ424U2PP38ojcCo53DV0Pw==" saltValue="mehRfJSA9N1k+XdaDNGXRA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wKxEoWv7nnHIidhOP9O7yQQ4/tikEcXr6gTA2GrtyLYFAb1ix6Ln3irIlHONZ8I1dXNIh1a5t0Hcu3pPb5ZHrw==" saltValue="PZemEz5qyqkMYDJdSEC/KA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B17:C17 E17:I17 B18:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16836,8 +16863,8 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16901,7 +16928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="104"/>
       <c r="C3" s="8" t="s">
         <v>146</v>
@@ -16923,7 +16950,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="104"/>
       <c r="C4" s="8" t="s">
         <v>147</v>
@@ -16945,7 +16972,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="103" t="s">
         <v>67</v>
       </c>
@@ -16953,9 +16980,7 @@
         <v>145</v>
       </c>
       <c r="D5" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.56)</f>
-        <v>2.6816521917326424</v>
+        <v>1.56</v>
       </c>
       <c r="E5" s="88">
         <v>1</v>
@@ -16970,15 +16995,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="104"/>
       <c r="C6" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.56)</f>
-        <v>2.6816521917326424</v>
+        <v>1.56</v>
       </c>
       <c r="E6" s="88">
         <v>1</v>
@@ -16993,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
       <c r="C7" s="8" t="s">
         <v>147</v>
@@ -17014,7 +17037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="103" t="s">
         <v>77</v>
       </c>
@@ -17025,9 +17048,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.56)</f>
-        <v>1.8256217850545697</v>
+        <v>1.56</v>
       </c>
       <c r="F8" s="88">
         <v>1</v>
@@ -17039,7 +17060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
       <c r="C9" s="8" t="s">
         <v>146</v>
@@ -17048,9 +17069,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.56)</f>
-        <v>1.8256217850545697</v>
+        <v>1.56</v>
       </c>
       <c r="F9" s="88">
         <v>1</v>
@@ -17062,7 +17081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
       <c r="C10" s="8" t="s">
         <v>147</v>
@@ -17083,7 +17102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="103" t="s">
         <v>78</v>
       </c>
@@ -17106,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
       <c r="C12" s="8" t="s">
         <v>146</v>
@@ -17127,7 +17146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="104"/>
       <c r="C13" s="8" t="s">
         <v>147</v>
@@ -17148,7 +17167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="103" t="s">
         <v>79</v>
       </c>
@@ -17171,7 +17190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
       <c r="C15" s="8" t="s">
         <v>146</v>
@@ -17192,7 +17211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="8" t="s">
         <v>147</v>
@@ -17236,7 +17255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="86"/>
       <c r="E18" s="86"/>
       <c r="F18" s="86"/>
@@ -17269,7 +17288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
       <c r="C20" s="8" t="s">
         <v>146</v>
@@ -17290,7 +17309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="104"/>
       <c r="C21" s="8" t="s">
         <v>147</v>
@@ -17311,7 +17330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="103" t="s">
         <v>67</v>
       </c>
@@ -17334,7 +17353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
       <c r="C23" s="8" t="s">
         <v>146</v>
@@ -17355,7 +17374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
       <c r="C24" s="8" t="s">
         <v>147</v>
@@ -17376,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="103" t="s">
         <v>77</v>
       </c>
@@ -17399,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
       <c r="C26" s="8" t="s">
         <v>146</v>
@@ -18081,9 +18100,7 @@
         <v>145</v>
       </c>
       <c r="D58" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.37)</f>
-        <v>1.893197032258046</v>
+        <v>1.37</v>
       </c>
       <c r="E58" s="88">
         <f t="shared" ref="E58:H60" si="1">IF(E5=1,1,E5*0.9)</f>
@@ -18108,9 +18125,7 @@
         <v>146</v>
       </c>
       <c r="D59" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.37)</f>
-        <v>1.893197032258046</v>
+        <v>1.37</v>
       </c>
       <c r="E59" s="88">
         <f t="shared" si="1"/>
@@ -18167,9 +18182,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.37)</f>
-        <v>1.5157075264671522</v>
+        <v>1.37</v>
       </c>
       <c r="F61" s="88">
         <f t="shared" ref="F61:H63" si="3">IF(F8=1,1,F8*0.9)</f>
@@ -18194,9 +18207,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.37)</f>
-        <v>1.5157075264671522</v>
+        <v>1.37</v>
       </c>
       <c r="F62" s="88">
         <f t="shared" si="3"/>
@@ -18705,7 +18716,7 @@
         <v>146</v>
       </c>
       <c r="D82" s="88">
-        <f t="shared" ref="D82:H91" si="7">IF(D29=1,1,D29*0.9)</f>
+        <f t="shared" ref="D82:H87" si="7">IF(D29=1,1,D29*0.9)</f>
         <v>1</v>
       </c>
       <c r="E82" s="88">
@@ -19143,7 +19154,7 @@
         <v>146</v>
       </c>
       <c r="D99" s="88">
-        <f t="shared" ref="D99:H108" si="9">IF(D46=1,1,D46*0.9)</f>
+        <f t="shared" ref="D99:H104" si="9">IF(D46=1,1,D46*0.9)</f>
         <v>1</v>
       </c>
       <c r="E99" s="88">
@@ -19426,9 +19437,7 @@
         <v>145</v>
       </c>
       <c r="D111" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.77)</f>
-        <v>4.1658819673433163</v>
+        <v>1.77</v>
       </c>
       <c r="E111" s="88">
         <f t="shared" ref="E111:H113" si="11">IF(E5=1,1,E5*1.05)</f>
@@ -19453,9 +19462,7 @@
         <v>146</v>
       </c>
       <c r="D112" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.77)</f>
-        <v>4.1658819673433163</v>
+        <v>1.77</v>
       </c>
       <c r="E112" s="88">
         <f t="shared" si="11"/>
@@ -19512,9 +19519,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.77)</f>
-        <v>2.2126599805813445</v>
+        <v>1.77</v>
       </c>
       <c r="F114" s="88">
         <f t="shared" ref="F114:H116" si="13">IF(F8=1,1,F8*1.05)</f>
@@ -19539,9 +19544,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.77)</f>
-        <v>2.2126599805813445</v>
+        <v>1.77</v>
       </c>
       <c r="F115" s="88">
         <f t="shared" si="13"/>
@@ -20050,7 +20053,7 @@
         <v>146</v>
       </c>
       <c r="D135" s="88">
-        <f t="shared" ref="D135:H144" si="17">IF(D29=1,1,D29*1.05)</f>
+        <f t="shared" ref="D135:H140" si="17">IF(D29=1,1,D29*1.05)</f>
         <v>1</v>
       </c>
       <c r="E135" s="88">
@@ -20488,7 +20491,7 @@
         <v>146</v>
       </c>
       <c r="D152" s="88">
-        <f t="shared" ref="D152:H161" si="19">IF(D46=1,1,D46*1.05)</f>
+        <f t="shared" ref="D152:H157" si="19">IF(D46=1,1,D46*1.05)</f>
         <v>1</v>
       </c>
       <c r="E152" s="88">
@@ -20643,7 +20646,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1IUQIPGO8A+lS5t9zmQeExgWOE7Hq9s+LMwGp5ZzK7cP6BPM6Y+s1H4DuDLssE5RfO3cDfuZkDwFgb68EXGf1A==" saltValue="EhqwdEStb6jxlKMHBUWr7g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="riIqDHxQDNIc95k8WEEMlpv2yK5yRhEl3GZr9d21PG7QnhNwxgtjaWmZN+9widROwyhXiwQ4XZiTM/cZ2Cl95g==" saltValue="b1Xx0XPjIcbtdUQJGdoNkQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -20703,8 +20706,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21925,7 +21928,7 @@
   <dimension ref="A1:P328"/>
   <sheetViews>
     <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -25378,7 +25381,7 @@
         <v>267</v>
       </c>
       <c r="D133" s="91">
-        <f t="shared" ref="D133:H142" si="2">IF(D23=1,1,D23*0.9)</f>
+        <f t="shared" ref="D133:H136" si="2">IF(D23=1,1,D23*0.9)</f>
         <v>1</v>
       </c>
       <c r="E133" s="91">
@@ -26035,7 +26038,7 @@
         <v>267</v>
       </c>
       <c r="D160" s="91">
-        <f t="shared" ref="D160:H169" si="5">IF(D50=1,1,D50*0.9)</f>
+        <f t="shared" ref="D160:H163" si="5">IF(D50=1,1,D50*0.9)</f>
         <v>1</v>
       </c>
       <c r="E160" s="91">
@@ -26858,7 +26861,7 @@
         <v>119</v>
       </c>
       <c r="D196" s="91">
-        <f t="shared" ref="D196:G215" si="8">IF(D86=1,1,D86*0.9)</f>
+        <f t="shared" ref="D196:G211" si="8">IF(D86=1,1,D86*0.9)</f>
         <v>1</v>
       </c>
       <c r="E196" s="91">
@@ -27971,7 +27974,7 @@
         <v>267</v>
       </c>
       <c r="D243" s="91">
-        <f t="shared" ref="D243:H252" si="12">IF(D23=1,1,D23*1.1)</f>
+        <f t="shared" ref="D243:H246" si="12">IF(D23=1,1,D23*1.1)</f>
         <v>1</v>
       </c>
       <c r="E243" s="91">
@@ -28654,7 +28657,7 @@
         <v>267</v>
       </c>
       <c r="D270" s="91">
-        <f t="shared" ref="D270:H279" si="15">IF(D50=1,1,D50*1.1)</f>
+        <f t="shared" ref="D270:H273" si="15">IF(D50=1,1,D50*1.1)</f>
         <v>1</v>
       </c>
       <c r="E270" s="91">
@@ -29504,7 +29507,7 @@
         <v>119</v>
       </c>
       <c r="D306" s="91">
-        <f t="shared" ref="D306:G325" si="18">IF(D86=1,1,D86*1.1)</f>
+        <f t="shared" ref="D306:G321" si="18">IF(D86=1,1,D86*1.1)</f>
         <v>1</v>
       </c>
       <c r="E306" s="91">
@@ -30064,8 +30067,8 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -30166,11 +30169,11 @@
       <c r="E6" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.64, (0.64*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.64*SUM('Nutritional status distribution'!$E$4:$E$5)))
 / (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.62149522092809584</v>
+        <v>0.62149522239494004</v>
       </c>
       <c r="F6" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.64, (0.64*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.64*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
-        <v>0.61362013048592579</v>
+        <v>0.61362013412086613</v>
       </c>
       <c r="G6" s="90">
         <v>1</v>
@@ -30188,11 +30191,11 @@
       </c>
       <c r="E7" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.88, (0.88*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.88*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.87135194464013144</v>
+        <v>0.87135194533912252</v>
       </c>
       <c r="F7" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.88, (0.88*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.88*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
-        <v>0.86756759606270328</v>
+        <v>0.86756759782419568</v>
       </c>
       <c r="G7" s="90">
         <v>1</v>
@@ -30210,11 +30213,11 @@
       </c>
       <c r="E8" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.88, (0.88*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.88*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.87135194464013144</v>
+        <v>0.87135194533912252</v>
       </c>
       <c r="F8" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.88, (0.88*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.88*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
-        <v>0.86756759606270328</v>
+        <v>0.86756759782419568</v>
       </c>
       <c r="G8" s="90">
         <v>1</v>
@@ -30493,11 +30496,11 @@
       </c>
       <c r="E29" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.44, (0.44*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.44*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.4205230288468686</v>
+        <v>0.42052303036636884</v>
       </c>
       <c r="F29" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.44, (0.44*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.44*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.41241976031486227</v>
+        <v>0.41241976403012753</v>
       </c>
       <c r="G29" s="90">
         <f>IF(G6=1,1,G6*0.9)</f>
@@ -30518,11 +30521,11 @@
       </c>
       <c r="E30" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.85, (0.85*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.85*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.83958404615512361</v>
+        <v>0.83958404699494438</v>
       </c>
       <c r="F30" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.85, (0.85*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.85*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.83504211526464955</v>
+        <v>0.83504211737650724</v>
       </c>
       <c r="G30" s="90">
         <f>IF(G7=1,1,G7*0.9)</f>
@@ -30543,11 +30546,11 @@
       </c>
       <c r="E31" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.85, (0.85*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.85*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.83958404615512361</v>
+        <v>0.83958404699494438</v>
       </c>
       <c r="F31" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.85, (0.85*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.85*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.83504211526464955</v>
+        <v>0.83504211737650724</v>
       </c>
       <c r="G31" s="90">
         <f>IF(G8=1,1,G8*0.9)</f>
@@ -30604,12 +30607,10 @@
         <v>300</v>
       </c>
       <c r="C35" s="90">
-        <f>C12*0.9</f>
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="D35" s="90">
-        <f>D12*0.9</f>
-        <v>1.2509999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E35" s="90">
         <v>1</v>
@@ -30870,11 +30871,11 @@
       </c>
       <c r="E52" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.92, (0.92*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.92*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.91395275805102005</v>
+        <v>0.9139527585414029</v>
       </c>
       <c r="F52" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.92, (0.92*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.92*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.91129399248228526</v>
+        <v>0.91129399372163722</v>
       </c>
       <c r="G52" s="90">
         <f>IF(G6=1,1,G6*1.1)</f>
@@ -30895,11 +30896,11 @@
       </c>
       <c r="E53" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.91, (0.91*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.91*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.90327632447425865</v>
+        <v>0.90327632501904742</v>
       </c>
       <c r="F53" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.91, (0.91*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.91*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.9003236468523319</v>
+        <v>0.90032364822819111</v>
       </c>
       <c r="G53" s="90">
         <f>IF(G7=1,1,G7*1.1)</f>
@@ -30920,11 +30921,11 @@
       </c>
       <c r="E54" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.91, (0.91*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.91*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.90327632447425865</v>
+        <v>0.90327632501904742</v>
       </c>
       <c r="F54" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.91, (0.91*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.91*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.9003236468523319</v>
+        <v>0.90032364822819111</v>
       </c>
       <c r="G54" s="90">
         <f>IF(G8=1,1,G8*1.1)</f>
@@ -30981,12 +30982,10 @@
         <v>314</v>
       </c>
       <c r="C58" s="90">
-        <f>C12*1.1</f>
-        <v>1.6500000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="D58" s="90">
-        <f>D12*1.1</f>
-        <v>1.5289999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="E58" s="90">
         <v>1</v>
@@ -31156,8 +31155,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31982,8 +31981,8 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="E35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -32383,16 +32382,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="M10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="O10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -32676,59 +32675,48 @@
         <v>1</v>
       </c>
       <c r="E19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.72,(0.72*'Nutritional status distribution'!E$14/(1-0.72*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.51437639753642261</v>
+        <f t="shared" ref="E19:O19" si="0">0.72</f>
+        <v>0.72</v>
       </c>
       <c r="F19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.72,(0.72*'Nutritional status distribution'!F$14/(1-0.72*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.64463221768551271</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="G19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.72,(0.72*'Nutritional status distribution'!G$14/(1-0.72*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.64463221768551271</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="H19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.72,(0.72*'Nutritional status distribution'!H$14/(1-0.72*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.61794563912236644</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="I19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.72,(0.72*'Nutritional status distribution'!I$14/(1-0.72*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.61794563912236644</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="J19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.72,(0.72*'Nutritional status distribution'!J$14/(1-0.72*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.61794563912236644</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="K19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.72,(0.72*'Nutritional status distribution'!K$14/(1-0.72*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.61794563912236644</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="L19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.72,(0.72*'Nutritional status distribution'!L$14/(1-0.72*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.6274614156466205</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="M19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.72,(0.72*'Nutritional status distribution'!M$14/(1-0.72*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.6274614156466205</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="N19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.72,(0.72*'Nutritional status distribution'!N$14/(1-0.72*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.6274614156466205</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="O19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.72,(0.72*'Nutritional status distribution'!O$14/(1-0.72*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.6274614156466205</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -32786,59 +32774,37 @@
         <v>1</v>
       </c>
       <c r="E21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.8,(0.8*'Nutritional status distribution'!E$14/(1-0.8*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.62230755318585451</v>
+        <v>0.8</v>
       </c>
       <c r="F21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.8,(0.8*'Nutritional status distribution'!F$14/(1-0.8*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.73834018731386708</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.8,(0.8*'Nutritional status distribution'!G$14/(1-0.8*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.73834018731386708</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.8,(0.8*'Nutritional status distribution'!H$14/(1-0.8*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.71558589306029574</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.8,(0.8*'Nutritional status distribution'!I$14/(1-0.8*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.71558589306029574</v>
+        <v>0.8</v>
       </c>
       <c r="J21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.8,(0.8*'Nutritional status distribution'!J$14/(1-0.8*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.71558589306029574</v>
+        <v>0.8</v>
       </c>
       <c r="K21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.8,(0.8*'Nutritional status distribution'!K$14/(1-0.8*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.71558589306029574</v>
+        <v>0.8</v>
       </c>
       <c r="L21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.8,(0.8*'Nutritional status distribution'!L$14/(1-0.8*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.72375690607734799</v>
+        <v>0.8</v>
       </c>
       <c r="M21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.8,(0.8*'Nutritional status distribution'!M$14/(1-0.8*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.72375690607734799</v>
+        <v>0.8</v>
       </c>
       <c r="N21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.8,(0.8*'Nutritional status distribution'!N$14/(1-0.8*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.72375690607734799</v>
+        <v>0.8</v>
       </c>
       <c r="O21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.8,(0.8*'Nutritional status distribution'!O$14/(1-0.8*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.72375690607734799</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -32905,47 +32871,47 @@
         <v>0.4</v>
       </c>
       <c r="E26" s="90">
-        <f t="shared" ref="E26:O26" si="0">IF(E3=1,1,E3*0.9)</f>
+        <f t="shared" ref="E26:O26" si="1">IF(E3=1,1,E3*0.9)</f>
         <v>1</v>
       </c>
       <c r="F26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32954,23 +32920,23 @@
         <v>175</v>
       </c>
       <c r="C27" s="90">
-        <f t="shared" ref="C27:G33" si="1">IF(C4=1,1,C4*0.9)</f>
+        <f t="shared" ref="C27:G33" si="2">IF(C4=1,1,C4*0.9)</f>
         <v>1</v>
       </c>
       <c r="D27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H27" s="90">
@@ -32986,19 +32952,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L27" s="90">
-        <f t="shared" ref="L27:O30" si="2">IF(L4=1,1,L4*0.9)</f>
+        <f t="shared" ref="L27:O30" si="3">IF(L4=1,1,L4*0.9)</f>
         <v>1</v>
       </c>
       <c r="M27" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N27" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O27" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33007,23 +32973,23 @@
         <v>176</v>
       </c>
       <c r="C28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H28" s="90">
@@ -33039,19 +33005,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33060,23 +33026,23 @@
         <v>177</v>
       </c>
       <c r="C29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H29" s="90">
@@ -33092,19 +33058,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33113,23 +33079,23 @@
         <v>178</v>
       </c>
       <c r="C30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H30" s="90">
@@ -33145,19 +33111,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33166,39 +33132,39 @@
         <v>179</v>
       </c>
       <c r="C31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H31" s="90">
-        <f t="shared" ref="H31:K34" si="3">IF(H8=1,1,H8*0.9)</f>
+        <f t="shared" ref="H31:K34" si="4">IF(H8=1,1,H8*0.9)</f>
         <v>1</v>
       </c>
       <c r="I31" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J31" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K31" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L31" s="90">
@@ -33219,39 +33185,39 @@
         <v>180</v>
       </c>
       <c r="C32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L32" s="90">
@@ -33272,39 +33238,39 @@
         <v>181</v>
       </c>
       <c r="C33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L33" s="90">
@@ -33342,19 +33308,19 @@
         <v>1</v>
       </c>
       <c r="H34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L34" s="90">
@@ -33423,11 +33389,11 @@
         <v>188</v>
       </c>
       <c r="C36" s="90">
-        <f t="shared" ref="C36:D38" si="4">IF(C13=1,1,C13*0.9)</f>
+        <f t="shared" ref="C36:D38" si="5">IF(C13=1,1,C13*0.9)</f>
         <v>1</v>
       </c>
       <c r="D36" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E36" s="90">
@@ -33440,35 +33406,35 @@
         <v>0.62</v>
       </c>
       <c r="H36" s="90">
-        <f t="shared" ref="H36:O36" si="5">IF(H13=1,1,H13*0.9)</f>
+        <f t="shared" ref="H36:O36" si="6">IF(H13=1,1,H13*0.9)</f>
         <v>1</v>
       </c>
       <c r="I36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -33477,39 +33443,39 @@
         <v>189</v>
       </c>
       <c r="C37" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D37" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E37" s="90">
-        <f t="shared" ref="E37:K37" si="6">IF(E14=1,1,E14*0.9)</f>
+        <f t="shared" ref="E37:K37" si="7">IF(E14=1,1,E14*0.9)</f>
         <v>1</v>
       </c>
       <c r="F37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L37" s="90">
@@ -33534,11 +33500,11 @@
         <v>192</v>
       </c>
       <c r="C38" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D38" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E38" s="90">
@@ -33548,39 +33514,39 @@
         <v>0.3</v>
       </c>
       <c r="G38" s="90">
-        <f t="shared" ref="G38:O38" si="7">IF(G15=1,1,G15*0.9)</f>
+        <f t="shared" ref="G38:O38" si="8">IF(G15=1,1,G15*0.9)</f>
         <v>1</v>
       </c>
       <c r="H38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -33595,55 +33561,55 @@
         <v>172</v>
       </c>
       <c r="C41" s="90">
-        <f t="shared" ref="C41:O41" si="8">IF(C18=1,1,C18*0.9)</f>
+        <f t="shared" ref="C41:O41" si="9">IF(C18=1,1,C18*0.9)</f>
         <v>1</v>
       </c>
       <c r="D41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -33652,67 +33618,45 @@
         <v>173</v>
       </c>
       <c r="C42" s="90">
-        <f t="shared" ref="C42:D44" si="9">IF(C19=1,1,C19*0.9)</f>
+        <f t="shared" ref="C42:D44" si="10">IF(C19=1,1,C19*0.9)</f>
         <v>1</v>
       </c>
       <c r="D42" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.54,(0.54*'Nutritional status distribution'!E$14/(1-0.54*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.32594182325028931</v>
+        <v>0.54</v>
       </c>
       <c r="F42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.54,(0.54*'Nutritional status distribution'!F$14/(1-0.54*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.45299118051131376</v>
+        <v>0.54</v>
       </c>
       <c r="G42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.54,(0.54*'Nutritional status distribution'!G$14/(1-0.54*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.45299118051131376</v>
+        <v>0.54</v>
       </c>
       <c r="H42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.54,(0.54*'Nutritional status distribution'!H$14/(1-0.54*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.42475552109646597</v>
+        <v>0.54</v>
       </c>
       <c r="I42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.54,(0.54*'Nutritional status distribution'!I$14/(1-0.54*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.42475552109646597</v>
+        <v>0.54</v>
       </c>
       <c r="J42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.54,(0.54*'Nutritional status distribution'!J$14/(1-0.54*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.42475552109646597</v>
+        <v>0.54</v>
       </c>
       <c r="K42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.54,(0.54*'Nutritional status distribution'!K$14/(1-0.54*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.42475552109646597</v>
+        <v>0.54</v>
       </c>
       <c r="L42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.54,(0.54*'Nutritional status distribution'!L$14/(1-0.54*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.43468108639547742</v>
+        <v>0.54</v>
       </c>
       <c r="M42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.54,(0.54*'Nutritional status distribution'!M$14/(1-0.54*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.43468108639547742</v>
+        <v>0.54</v>
       </c>
       <c r="N42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.54,(0.54*'Nutritional status distribution'!N$14/(1-0.54*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.43468108639547742</v>
+        <v>0.54</v>
       </c>
       <c r="O42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.54,(0.54*'Nutritional status distribution'!O$14/(1-0.54*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.43468108639547742</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -33720,55 +33664,55 @@
         <v>174</v>
       </c>
       <c r="C43" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D43" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E43" s="90">
-        <f t="shared" ref="E43:O43" si="10">IF(E20=1,1,E20*0.9)</f>
+        <f t="shared" ref="E43:O43" si="11">IF(E20=1,1,E20*0.9)</f>
         <v>1</v>
       </c>
       <c r="F43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -33777,67 +33721,45 @@
         <v>182</v>
       </c>
       <c r="C44" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D44" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.7,(0.7*'Nutritional status distribution'!E$14/(1-0.7*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.49009072183523855</v>
+        <v>0.7</v>
       </c>
       <c r="F44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.7,(0.7*'Nutritional status distribution'!F$14/(1-0.7*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.6220745391732373</v>
+        <v>0.7</v>
       </c>
       <c r="G44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.7,(0.7*'Nutritional status distribution'!G$14/(1-0.7*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.6220745391732373</v>
+        <v>0.7</v>
       </c>
       <c r="H44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.7,(0.7*'Nutritional status distribution'!H$14/(1-0.7*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.59475888153451295</v>
+        <v>0.7</v>
       </c>
       <c r="I44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.7,(0.7*'Nutritional status distribution'!I$14/(1-0.7*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.59475888153451295</v>
+        <v>0.7</v>
       </c>
       <c r="J44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.7,(0.7*'Nutritional status distribution'!J$14/(1-0.7*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.59475888153451295</v>
+        <v>0.7</v>
       </c>
       <c r="K44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.7,(0.7*'Nutritional status distribution'!K$14/(1-0.7*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.59475888153451295</v>
+        <v>0.7</v>
       </c>
       <c r="L44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.7,(0.7*'Nutritional status distribution'!L$14/(1-0.7*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.60448253131179941</v>
+        <v>0.7</v>
       </c>
       <c r="M44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.7,(0.7*'Nutritional status distribution'!M$14/(1-0.7*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.60448253131179941</v>
+        <v>0.7</v>
       </c>
       <c r="N44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.7,(0.7*'Nutritional status distribution'!N$14/(1-0.7*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.60448253131179941</v>
+        <v>0.7</v>
       </c>
       <c r="O44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.7,(0.7*'Nutritional status distribution'!O$14/(1-0.7*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.60448253131179941</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -33904,47 +33826,47 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="90">
-        <f t="shared" ref="E49:O49" si="11">IF(E3=1,1,E3*1.05)</f>
+        <f t="shared" ref="E49:O49" si="12">IF(E3=1,1,E3*1.05)</f>
         <v>1</v>
       </c>
       <c r="F49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -33953,23 +33875,23 @@
         <v>175</v>
       </c>
       <c r="C50" s="90">
-        <f t="shared" ref="C50:G56" si="12">IF(C4=1,1,C4*1.05)</f>
+        <f t="shared" ref="C50:G56" si="13">IF(C4=1,1,C4*1.05)</f>
         <v>1</v>
       </c>
       <c r="D50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H50" s="90">
@@ -33985,19 +33907,19 @@
         <v>0.95</v>
       </c>
       <c r="L50" s="90">
-        <f t="shared" ref="L50:O53" si="13">IF(L4=1,1,L4*1.05)</f>
+        <f t="shared" ref="L50:O53" si="14">IF(L4=1,1,L4*1.05)</f>
         <v>1</v>
       </c>
       <c r="M50" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N50" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O50" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34006,23 +33928,23 @@
         <v>176</v>
       </c>
       <c r="C51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H51" s="90">
@@ -34038,19 +33960,19 @@
         <v>0.95</v>
       </c>
       <c r="L51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34059,23 +33981,23 @@
         <v>177</v>
       </c>
       <c r="C52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H52" s="90">
@@ -34091,19 +34013,19 @@
         <v>0.95</v>
       </c>
       <c r="L52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34112,23 +34034,23 @@
         <v>178</v>
       </c>
       <c r="C53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H53" s="90">
@@ -34144,19 +34066,19 @@
         <v>0.95</v>
       </c>
       <c r="L53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34165,39 +34087,39 @@
         <v>179</v>
       </c>
       <c r="C54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H54" s="90">
-        <f t="shared" ref="H54:K57" si="14">IF(H8=1,1,H8*1.05)</f>
+        <f t="shared" ref="H54:K57" si="15">IF(H8=1,1,H8*1.05)</f>
         <v>1</v>
       </c>
       <c r="I54" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J54" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K54" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L54" s="90">
@@ -34218,39 +34140,39 @@
         <v>180</v>
       </c>
       <c r="C55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L55" s="90">
@@ -34271,52 +34193,52 @@
         <v>181</v>
       </c>
       <c r="C56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="M56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="N56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -34342,19 +34264,19 @@
         <v>1</v>
       </c>
       <c r="H57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L57" s="90">
@@ -34423,11 +34345,11 @@
         <v>188</v>
       </c>
       <c r="C59" s="90">
-        <f t="shared" ref="C59:D61" si="15">IF(C13=1,1,C13*1.05)</f>
+        <f t="shared" ref="C59:D61" si="16">IF(C13=1,1,C13*1.05)</f>
         <v>1</v>
       </c>
       <c r="D59" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E59" s="90">
@@ -34440,35 +34362,35 @@
         <v>0.77</v>
       </c>
       <c r="H59" s="90">
-        <f t="shared" ref="H59:O59" si="16">IF(H13=1,1,H13*1.05)</f>
+        <f t="shared" ref="H59:O59" si="17">IF(H13=1,1,H13*1.05)</f>
         <v>1</v>
       </c>
       <c r="I59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -34477,39 +34399,39 @@
         <v>189</v>
       </c>
       <c r="C60" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D60" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E60" s="90">
-        <f t="shared" ref="E60:K60" si="17">IF(E14=1,1,E14*1.05)</f>
+        <f t="shared" ref="E60:K60" si="18">IF(E14=1,1,E14*1.05)</f>
         <v>1</v>
       </c>
       <c r="F60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L60" s="90">
@@ -34534,11 +34456,11 @@
         <v>192</v>
       </c>
       <c r="C61" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D61" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E61" s="90">
@@ -34548,39 +34470,39 @@
         <v>0.44</v>
       </c>
       <c r="G61" s="90">
-        <f t="shared" ref="G61:O61" si="18">IF(G15=1,1,G15*1.05)</f>
+        <f t="shared" ref="G61:O61" si="19">IF(G15=1,1,G15*1.05)</f>
         <v>1</v>
       </c>
       <c r="H61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -34595,55 +34517,55 @@
         <v>172</v>
       </c>
       <c r="C64" s="90">
-        <f t="shared" ref="C64:O64" si="19">IF(C18=1,1,C18*1.05)</f>
+        <f t="shared" ref="C64:O64" si="20">IF(C18=1,1,C18*1.05)</f>
         <v>1</v>
       </c>
       <c r="D64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="H64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -34652,67 +34574,45 @@
         <v>173</v>
       </c>
       <c r="C65" s="90">
-        <f t="shared" ref="C65:D67" si="20">IF(C19=1,1,C19*1.05)</f>
+        <f t="shared" ref="C65:D67" si="21">IF(C19=1,1,C19*1.05)</f>
         <v>1</v>
       </c>
       <c r="D65" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.97,(0.97*'Nutritional status distribution'!E$14/(1-0.97*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.93016057317679579</v>
+        <v>0.97</v>
       </c>
       <c r="F65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.97,(0.97*'Nutritional status distribution'!F$14/(1-0.97*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.95799942102527091</v>
+        <v>0.97</v>
       </c>
       <c r="G65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.97,(0.97*'Nutritional status distribution'!G$14/(1-0.97*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.95799942102527091</v>
+        <v>0.97</v>
       </c>
       <c r="H65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.97,(0.97*'Nutritional status distribution'!H$14/(1-0.97*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.95313451955071604</v>
+        <v>0.97</v>
       </c>
       <c r="I65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.97,(0.97*'Nutritional status distribution'!I$14/(1-0.97*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.95313451955071604</v>
+        <v>0.97</v>
       </c>
       <c r="J65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.97,(0.97*'Nutritional status distribution'!J$14/(1-0.97*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.95313451955071604</v>
+        <v>0.97</v>
       </c>
       <c r="K65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.97,(0.97*'Nutritional status distribution'!K$14/(1-0.97*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.95313451955071604</v>
+        <v>0.97</v>
       </c>
       <c r="L65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.97,(0.97*'Nutritional status distribution'!L$14/(1-0.97*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.95491094912452068</v>
+        <v>0.97</v>
       </c>
       <c r="M65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.97,(0.97*'Nutritional status distribution'!M$14/(1-0.97*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.95491094912452068</v>
+        <v>0.97</v>
       </c>
       <c r="N65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.97,(0.97*'Nutritional status distribution'!N$14/(1-0.97*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.95491094912452068</v>
+        <v>0.97</v>
       </c>
       <c r="O65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.97,(0.97*'Nutritional status distribution'!O$14/(1-0.97*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.95491094912452068</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
@@ -34720,55 +34620,55 @@
         <v>174</v>
       </c>
       <c r="C66" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D66" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E66" s="90">
-        <f t="shared" ref="E66:O66" si="21">IF(E20=1,1,E20*1.05)</f>
+        <f t="shared" ref="E66:O66" si="22">IF(E20=1,1,E20*1.05)</f>
         <v>1</v>
       </c>
       <c r="F66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="H66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="L66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="N66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -34777,62 +34677,42 @@
         <v>182</v>
       </c>
       <c r="C67" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D67" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.92,(0.92*'Nutritional status distribution'!E$14/(1-0.92*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.82569328068606185</v>
+        <v>0.92</v>
       </c>
       <c r="F67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.92,(0.92*'Nutritional status distribution'!F$14/(1-0.92*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.89026122048350287</v>
+        <v>0.92</v>
       </c>
       <c r="G67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.92,(0.92*'Nutritional status distribution'!G$14/(1-0.92*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.89026122048350287</v>
+        <v>0.92</v>
       </c>
       <c r="H67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.92,(0.92*'Nutritional status distribution'!H$14/(1-0.92*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.87854496872532961</v>
+        <v>0.92</v>
       </c>
       <c r="I67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.92,(0.92*'Nutritional status distribution'!I$14/(1-0.92*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.87854496872532961</v>
+        <v>0.92</v>
       </c>
       <c r="J67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.92,(0.92*'Nutritional status distribution'!J$14/(1-0.92*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.87854496872532961</v>
+        <v>0.92</v>
       </c>
       <c r="K67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.92,(0.92*'Nutritional status distribution'!K$14/(1-0.92*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.87854496872532961</v>
+        <v>0.92</v>
       </c>
       <c r="L67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.92,(0.92*'Nutritional status distribution'!L$14/(1-0.92*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.88280105479050697</v>
+        <v>0.92</v>
       </c>
       <c r="M67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.92,(0.92*'Nutritional status distribution'!M$14/(1-0.92*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.88280105479050697</v>
+        <v>0.92</v>
       </c>
       <c r="N67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.92,(0.92*'Nutritional status distribution'!N$14/(1-0.92*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.88280105479050697</v>
+        <v>0.92</v>
       </c>
       <c r="O67" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.92,(0.92*'Nutritional status distribution'!O$14/(1-0.92*'Nutritional status distribution'!O$14))
@@ -34856,7 +34736,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -34892,7 +34772,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>157</v>
       </c>
@@ -34900,24 +34780,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!D$11/(1-(1/1.33)*'Nutritional status distribution'!D$11))
-/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
-        <v>0.74733705691826258</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="E3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!E$11/(1-(1/1.33)*'Nutritional status distribution'!E$11))
-/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
-        <v>0.75004643989277653</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="F3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!F$11/(1-(1/1.33)*'Nutritional status distribution'!F$11))
-/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
-        <v>0.75075977605560495</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="G3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!G$11/(1-(1/1.33)*'Nutritional status distribution'!G$11))
-/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
-        <v>0.75113844056232215</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -34931,7 +34807,7 @@
       <c r="F4" s="83"/>
       <c r="G4" s="83"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>158</v>
       </c>
@@ -34939,24 +34815,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!D$10/(1-(1/1.33)*'Nutritional status distribution'!D$10))
-/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
-        <v>0.74674212243462712</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="E5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!E$10/(1-(1/1.33)*'Nutritional status distribution'!E$10))
-/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
-        <v>0.74988720605141279</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="F5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!F$10/(1-(1/1.33)*'Nutritional status distribution'!F$10))
-/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
-        <v>0.74958124089271461</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="G5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!G$10/(1-(1/1.33)*'Nutritional status distribution'!G$10))
-/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
-        <v>0.74822996872739134</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -34988,7 +34860,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>157</v>
       </c>
@@ -34996,24 +34868,20 @@
         <v>1</v>
       </c>
       <c r="D10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!D$11/(1-(1/1.54)*'Nutritional status distribution'!D$11))
-/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
-        <v>0.64382011230613689</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!E$11/(1-(1/1.54)*'Nutritional status distribution'!E$11))
-/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
-        <v>0.64711538843963246</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="F10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!F$11/(1-(1/1.54)*'Nutritional status distribution'!F$11))
-/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
-        <v>0.64798461168299271</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="G10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!G$11/(1-(1/1.54)*'Nutritional status distribution'!G$11))
-/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
-        <v>0.64844630346713938</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -35027,7 +34895,7 @@
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>158</v>
       </c>
@@ -35035,24 +34903,20 @@
         <v>1</v>
       </c>
       <c r="D12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!D$10/(1-(1/1.54)*'Nutritional status distribution'!D$10))
-/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
-        <v>0.64309783597613601</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!E$10/(1-(1/1.54)*'Nutritional status distribution'!E$10))
-/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
-        <v>0.64692144978763211</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="F12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!F$10/(1-(1/1.54)*'Nutritional status distribution'!F$10))
-/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
-        <v>0.64654889507082725</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="G12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!G$10/(1-(1/1.54)*'Nutritional status distribution'!G$10))
-/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
-        <v>0.64490503070555505</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -35084,7 +34948,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>157</v>
       </c>
@@ -35092,24 +34956,20 @@
         <v>1</v>
       </c>
       <c r="D17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!D$11/(1-(1/1.16)*'Nutritional status distribution'!D$11))
-/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
-        <v>0.85916582062017832</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="E17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!E$11/(1-(1/1.16)*'Nutritional status distribution'!E$11))
-/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
-        <v>0.8608992297498077</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="F17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!F$11/(1-(1/1.16)*'Nutritional status distribution'!F$11))
-/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
-        <v>0.86135468474895394</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="G17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!G$11/(1-(1/1.16)*'Nutritional status distribution'!G$11))
-/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
-        <v>0.86159630064513437</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -35123,7 +34983,7 @@
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>158</v>
       </c>
@@ -35131,24 +34991,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!D$10/(1-(1/1.16)*'Nutritional status distribution'!D$10))
-/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
-        <v>0.85878444828979006</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="E19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!E$10/(1-(1/1.16)*'Nutritional status distribution'!E$10))
-/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
-        <v>0.86079750874593719</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="F19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!F$10/(1-(1/1.16)*'Nutritional status distribution'!F$10))
-/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
-        <v>0.86060199976302998</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="G19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!G$10/(1-(1/1.16)*'Nutritional status distribution'!G$10))
-/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
-        <v>0.85973770200080746</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
     </row>
   </sheetData>
@@ -35166,8 +35022,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -35210,7 +35066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>193</v>
       </c>
@@ -35236,7 +35092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>339</v>
       </c>
@@ -35256,7 +35112,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>340</v>
       </c>
@@ -35276,7 +35132,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>191</v>
       </c>
@@ -35302,7 +35158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>340</v>
       </c>
@@ -35322,7 +35178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>204</v>
       </c>
@@ -35345,7 +35201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>340</v>
       </c>
@@ -35365,7 +35221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>184</v>
       </c>
@@ -35391,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>340</v>
       </c>
@@ -35411,7 +35267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>204</v>
       </c>
@@ -35434,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>340</v>
       </c>
@@ -35454,7 +35310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>192</v>
       </c>
@@ -35480,7 +35336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>340</v>
       </c>
@@ -35500,7 +35356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>204</v>
       </c>
@@ -35523,7 +35379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>340</v>
       </c>
@@ -35543,7 +35399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>169</v>
       </c>
@@ -35569,7 +35425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>340</v>
       </c>
@@ -35589,7 +35445,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>204</v>
       </c>
@@ -35612,7 +35468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>340</v>
       </c>
@@ -35632,7 +35488,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>174</v>
       </c>
@@ -35658,7 +35514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>339</v>
       </c>
@@ -35678,7 +35534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>172</v>
       </c>
@@ -35704,7 +35560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>339</v>
       </c>
@@ -35724,7 +35580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>173</v>
       </c>
@@ -35750,7 +35606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>339</v>
       </c>
@@ -35770,7 +35626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>197</v>
       </c>
@@ -35796,7 +35652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>339</v>
       </c>
@@ -35816,7 +35672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>340</v>
       </c>
@@ -35836,7 +35692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>198</v>
       </c>
@@ -35862,7 +35718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>339</v>
       </c>
@@ -35882,7 +35738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
         <v>340</v>
       </c>
@@ -35902,7 +35758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>196</v>
       </c>
@@ -35928,7 +35784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>339</v>
       </c>
@@ -35948,7 +35804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>340</v>
       </c>
@@ -35968,7 +35824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>195</v>
       </c>
@@ -35994,7 +35850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>339</v>
       </c>
@@ -36014,7 +35870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
         <v>340</v>
       </c>
@@ -36034,7 +35890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>194</v>
       </c>
@@ -36060,7 +35916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
         <v>339</v>
       </c>
@@ -36080,7 +35936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>340</v>
       </c>
@@ -36100,7 +35956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>200</v>
       </c>
@@ -36126,7 +35982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>339</v>
       </c>
@@ -36146,7 +36002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>340</v>
       </c>
@@ -36166,7 +36022,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>82</v>
       </c>
@@ -36189,7 +36045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
         <v>339</v>
       </c>
@@ -36209,7 +36065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
         <v>340</v>
       </c>
@@ -36229,7 +36085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>190</v>
       </c>
@@ -36255,7 +36111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
         <v>339</v>
       </c>
@@ -36275,7 +36131,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>199</v>
       </c>
@@ -36301,7 +36157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
         <v>339</v>
       </c>
@@ -36321,7 +36177,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>183</v>
       </c>
@@ -36347,12 +36203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
         <v>339</v>
       </c>
       <c r="D53" s="90">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="E53" s="90">
         <v>0</v>
@@ -36400,7 +36256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>193</v>
       </c>
@@ -36431,7 +36287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
         <v>339</v>
       </c>
@@ -36453,7 +36309,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
         <v>340</v>
       </c>
@@ -36475,7 +36331,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>191</v>
       </c>
@@ -36501,7 +36357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
         <v>340</v>
       </c>
@@ -36521,7 +36377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>204</v>
       </c>
@@ -36544,7 +36400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
         <v>340</v>
       </c>
@@ -36564,7 +36420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>184</v>
       </c>
@@ -36590,7 +36446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
         <v>340</v>
       </c>
@@ -36610,7 +36466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>204</v>
       </c>
@@ -36633,7 +36489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
         <v>340</v>
       </c>
@@ -36653,7 +36509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>192</v>
       </c>
@@ -36679,7 +36535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
         <v>340</v>
       </c>
@@ -36702,7 +36558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>204</v>
       </c>
@@ -36730,7 +36586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
         <v>340</v>
       </c>
@@ -36753,7 +36609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>169</v>
       </c>
@@ -36784,7 +36640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
         <v>340</v>
       </c>
@@ -37608,7 +37464,7 @@
         <v>339</v>
       </c>
       <c r="D108" s="90">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E108" s="90">
         <v>0</v>
@@ -38869,7 +38725,7 @@
         <v>339</v>
       </c>
       <c r="D163" s="90">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="E163" s="90">
         <v>0</v>
@@ -38900,7 +38756,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -38935,7 +38791,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
@@ -38959,7 +38815,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
         <v>339</v>
       </c>
@@ -38977,7 +38833,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -39001,7 +38857,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>339</v>
       </c>
@@ -39019,7 +38875,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>186</v>
       </c>
@@ -39043,7 +38899,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>339</v>
       </c>
@@ -39087,7 +38943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>168</v>
       </c>
@@ -39114,7 +38970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>339</v>
       </c>
@@ -39131,7 +38987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>187</v>
       </c>
@@ -39158,7 +39014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>339</v>
       </c>
@@ -39179,7 +39035,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>186</v>
       </c>
@@ -39206,7 +39062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
         <v>339</v>
       </c>
@@ -39253,7 +39109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -39280,7 +39136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
         <v>339</v>
       </c>
@@ -39297,7 +39153,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>187</v>
       </c>
@@ -39324,7 +39180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
         <v>339</v>
       </c>
@@ -39345,7 +39201,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>186</v>
       </c>
@@ -39372,7 +39228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="s">
         <v>339</v>
       </c>
@@ -39407,7 +39263,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -39421,7 +39277,7 @@
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
-        <v>Percentage of deaths in baseline year (2021) attributable to cause</v>
+        <v>Percentage of deaths in baseline year (2024) attributable to cause</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -39457,7 +39313,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="101">
-        <v>9.3919396814947223E-2</v>
+        <v>7.2734599999999927E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39465,7 +39321,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="101">
-        <v>3.6280150732841909E-2</v>
+        <v>2.9755600000000038E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39473,7 +39329,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="101">
-        <v>0.11770533440942441</v>
+        <v>0.1467636999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39481,7 +39337,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="101">
-        <v>0.40041615629285371</v>
+        <v>0.41250100000000051</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39489,7 +39345,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="101">
-        <v>4.8353703706277276E-3</v>
+        <v>6.1284000000000009E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39497,7 +39353,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="101">
-        <v>0.2379124981177804</v>
+        <v>0.2188106999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39505,7 +39361,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="101">
-        <v>0.1089310932615245</v>
+        <v>0.113306</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39514,7 +39370,7 @@
       </c>
       <c r="C11" s="48">
         <f>SUM(C3:C10)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -39554,16 +39410,16 @@
         <v>81</v>
       </c>
       <c r="C14" s="55">
-        <v>7.3110808787829995E-2</v>
+        <v>1.7752015123056169E-2</v>
       </c>
       <c r="D14" s="55">
-        <v>7.3110808787829995E-2</v>
+        <v>1.7752015123056169E-2</v>
       </c>
       <c r="E14" s="55">
-        <v>7.3110808787829995E-2</v>
+        <v>1.7752015123056169E-2</v>
       </c>
       <c r="F14" s="55">
-        <v>7.3110808787829995E-2</v>
+        <v>1.7752015123056169E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39571,16 +39427,16 @@
         <v>82</v>
       </c>
       <c r="C15" s="101">
-        <v>0.17712405874107101</v>
+        <v>0.61124027546512405</v>
       </c>
       <c r="D15" s="101">
-        <v>0.17712405874107101</v>
+        <v>0.61124027546512405</v>
       </c>
       <c r="E15" s="101">
-        <v>0.17712405874107101</v>
+        <v>0.61124027546512405</v>
       </c>
       <c r="F15" s="101">
-        <v>0.17712405874107101</v>
+        <v>0.61124027546512405</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39588,16 +39444,16 @@
         <v>83</v>
       </c>
       <c r="C16" s="101">
-        <v>2.782595020164725E-2</v>
+        <v>1.6022347070029211E-2</v>
       </c>
       <c r="D16" s="101">
-        <v>2.782595020164725E-2</v>
+        <v>1.6022347070029211E-2</v>
       </c>
       <c r="E16" s="101">
-        <v>2.782595020164725E-2</v>
+        <v>1.6022347070029211E-2</v>
       </c>
       <c r="F16" s="101">
-        <v>2.782595020164725E-2</v>
+        <v>1.6022347070029211E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39605,16 +39461,16 @@
         <v>84</v>
       </c>
       <c r="C17" s="101">
-        <v>0</v>
+        <v>5.8457813749759656E-3</v>
       </c>
       <c r="D17" s="101">
-        <v>0</v>
+        <v>5.8457813749759656E-3</v>
       </c>
       <c r="E17" s="101">
-        <v>0</v>
+        <v>5.8457813749759656E-3</v>
       </c>
       <c r="F17" s="101">
-        <v>0</v>
+        <v>5.8457813749759656E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39639,16 +39495,16 @@
         <v>86</v>
       </c>
       <c r="C19" s="101">
-        <v>2.1084045166325161E-2</v>
+        <v>2.2229239875370121E-2</v>
       </c>
       <c r="D19" s="101">
-        <v>2.1084045166325161E-2</v>
+        <v>2.2229239875370121E-2</v>
       </c>
       <c r="E19" s="101">
-        <v>2.1084045166325161E-2</v>
+        <v>2.2229239875370121E-2</v>
       </c>
       <c r="F19" s="101">
-        <v>2.1084045166325161E-2</v>
+        <v>2.2229239875370121E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39656,16 +39512,16 @@
         <v>87</v>
       </c>
       <c r="C20" s="101">
-        <v>1.8811993788943411E-3</v>
+        <v>4.9781084605670864E-3</v>
       </c>
       <c r="D20" s="101">
-        <v>1.8811993788943411E-3</v>
+        <v>4.9781084605670864E-3</v>
       </c>
       <c r="E20" s="101">
-        <v>1.8811993788943411E-3</v>
+        <v>4.9781084605670864E-3</v>
       </c>
       <c r="F20" s="101">
-        <v>1.8811993788943411E-3</v>
+        <v>4.9781084605670864E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39673,16 +39529,16 @@
         <v>88</v>
       </c>
       <c r="C21" s="101">
-        <v>0.198924525198548</v>
+        <v>0.26469792753207122</v>
       </c>
       <c r="D21" s="101">
-        <v>0.198924525198548</v>
+        <v>0.26469792753207122</v>
       </c>
       <c r="E21" s="101">
-        <v>0.198924525198548</v>
+        <v>0.26469792753207122</v>
       </c>
       <c r="F21" s="101">
-        <v>0.198924525198548</v>
+        <v>0.26469792753207122</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39690,16 +39546,16 @@
         <v>89</v>
       </c>
       <c r="C22" s="101">
-        <v>0.50004941252568447</v>
+        <v>5.7234305098806143E-2</v>
       </c>
       <c r="D22" s="101">
-        <v>0.50004941252568447</v>
+        <v>5.7234305098806143E-2</v>
       </c>
       <c r="E22" s="101">
-        <v>0.50004941252568447</v>
+        <v>5.7234305098806143E-2</v>
       </c>
       <c r="F22" s="101">
-        <v>0.50004941252568447</v>
+        <v>5.7234305098806143E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39708,19 +39564,19 @@
       </c>
       <c r="C23" s="48">
         <f>SUM(C14:C22)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D23" s="48">
         <f>SUM(D14:D22)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E23" s="48">
         <f>SUM(E14:E22)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="F23" s="48">
         <f>SUM(F14:F22)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -39846,7 +39702,7 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -39859,7 +39715,7 @@
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
-        <v>Percentage of population in each category in baseline year (2021)</v>
+        <v>Percentage of population in each category in baseline year (2024)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>100</v>
@@ -39889,23 +39745,23 @@
       </c>
       <c r="C2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.63376882748716545</v>
+        <v>0.63376884885074625</v>
       </c>
       <c r="D2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.63376882748716545</v>
+        <v>0.63376884885074625</v>
       </c>
       <c r="E2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.66632413446972893</v>
+        <v>0.66632414906339676</v>
       </c>
       <c r="F2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.59653395887931282</v>
+        <v>0.59653398771122568</v>
       </c>
       <c r="G2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.69260694461751826</v>
+        <v>0.69260681738211394</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39914,23 +39770,23 @@
       </c>
       <c r="C3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
-        <v>0.27640916330701643</v>
+        <v>0.2764091511492538</v>
       </c>
       <c r="D3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
-        <v>0.27640916330701643</v>
+        <v>0.2764091511492538</v>
       </c>
       <c r="E3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
-        <v>0.25728655977104964</v>
+        <v>0.25728655093660324</v>
       </c>
       <c r="F3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
-        <v>0.29678722742477959</v>
+        <v>0.29678721228877436</v>
       </c>
       <c r="G3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
-        <v>0.24100620203774326</v>
+        <v>0.24100628261788606</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39938,19 +39794,19 @@
         <v>104</v>
       </c>
       <c r="C4" s="45">
-        <v>7.1541570127010304E-2</v>
+        <v>7.1541599999999997E-2</v>
       </c>
       <c r="D4" s="53">
-        <v>7.1541570127010304E-2</v>
+        <v>7.1541599999999997E-2</v>
       </c>
       <c r="E4" s="53">
-        <v>7.2694912552833599E-2</v>
+        <v>7.2694900000000007E-2</v>
       </c>
       <c r="F4" s="53">
-        <v>8.1473901867866502E-2</v>
+        <v>8.1473900000000002E-2</v>
       </c>
       <c r="G4" s="53">
-        <v>5.2827265113592113E-2</v>
+        <v>5.2827300000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39958,19 +39814,19 @@
         <v>105</v>
       </c>
       <c r="C5" s="45">
-        <v>1.82804390788078E-2</v>
+        <v>1.8280399999999999E-2</v>
       </c>
       <c r="D5" s="53">
-        <v>1.82804390788078E-2</v>
+        <v>1.8280399999999999E-2</v>
       </c>
       <c r="E5" s="53">
-        <v>3.6943932063877999E-3</v>
+        <v>3.6944E-3</v>
       </c>
       <c r="F5" s="53">
-        <v>2.5204911828041101E-2</v>
+        <v>2.5204899999999999E-2</v>
       </c>
       <c r="G5" s="53">
-        <v>1.3559588231146299E-2</v>
+        <v>1.35596E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39998,23 +39854,23 @@
       </c>
       <c r="C8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.73769691006147964</v>
+        <v>0.73769680046160047</v>
       </c>
       <c r="D8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.73769691006147964</v>
+        <v>0.73769680046160047</v>
       </c>
       <c r="E8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.85235162032442657</v>
+        <v>0.85235131644155149</v>
       </c>
       <c r="F8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.86275919745338903</v>
+        <v>0.86275872651129459</v>
       </c>
       <c r="G8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.83915208614936976</v>
+        <v>0.83915207383659318</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40023,23 +39879,23 @@
       </c>
       <c r="C9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
-        <v>0.21141062512195014</v>
+        <v>0.21141069953839953</v>
       </c>
       <c r="D9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
-        <v>0.21141062512195014</v>
+        <v>0.21141069953839953</v>
       </c>
       <c r="E9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
-        <v>0.12729834439558413</v>
+        <v>0.12729858355844853</v>
       </c>
       <c r="F9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
-        <v>0.11905729831533682</v>
+        <v>0.11905767348870541</v>
       </c>
       <c r="G9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
-        <v>0.13760631662287809</v>
+        <v>0.13760632616340679</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40047,19 +39903,19 @@
         <v>109</v>
       </c>
       <c r="C10" s="45">
-        <v>2.6980314403772399E-2</v>
+        <v>2.6980299999999999E-2</v>
       </c>
       <c r="D10" s="53">
-        <v>2.6980314403772399E-2</v>
+        <v>2.6980299999999999E-2</v>
       </c>
       <c r="E10" s="53">
-        <v>1.0595283471047901E-2</v>
+        <v>1.05953E-2</v>
       </c>
       <c r="F10" s="53">
-        <v>1.22073506936431E-2</v>
+        <v>1.22074E-2</v>
       </c>
       <c r="G10" s="53">
-        <v>1.92800611257553E-2</v>
+        <v>1.9280100000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40067,19 +39923,19 @@
         <v>110</v>
       </c>
       <c r="C11" s="45">
-        <v>2.39121504127979E-2</v>
+        <v>2.3912200000000002E-2</v>
       </c>
       <c r="D11" s="53">
-        <v>2.39121504127979E-2</v>
+        <v>2.3912200000000002E-2</v>
       </c>
       <c r="E11" s="53">
-        <v>9.754751808941399E-3</v>
+        <v>9.754800000000001E-3</v>
       </c>
       <c r="F11" s="53">
-        <v>5.9761535376310002E-3</v>
+        <v>5.9762000000000001E-3</v>
       </c>
       <c r="G11" s="53">
-        <v>3.9615361019969004E-3</v>
+        <v>3.9614999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40271,7 +40127,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G4"/>
+      <selection activeCell="E2" sqref="E2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -40283,7 +40139,7 @@
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
-        <v>Percentage of children in each category in baseline year (2021)</v>
+        <v>Percentage of children in each category in baseline year (2024)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>100</v>
@@ -40312,64 +40168,78 @@
         <v>119</v>
       </c>
       <c r="C2" s="45">
-        <v>0.42756035923957803</v>
+        <v>0.4275603</v>
       </c>
       <c r="D2" s="53">
         <v>0.2062329</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="53">
+        <v>0</v>
+      </c>
+      <c r="F2" s="53">
+        <v>0</v>
+      </c>
+      <c r="G2" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="53">
-        <v>0.10077443718910201</v>
+        <v>0.1007744</v>
       </c>
       <c r="D3" s="53">
         <v>0.1128769</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="53">
+        <v>0</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="53">
-        <v>0.369465261697769</v>
+        <v>0.36946530000000011</v>
       </c>
       <c r="D4" s="53">
         <v>0.46366649999999998</v>
       </c>
       <c r="E4" s="53">
-        <v>0.54610043764114402</v>
+        <v>0.54610039999999993</v>
       </c>
       <c r="F4" s="53">
-        <v>0.26147621870040899</v>
-      </c>
-      <c r="G4" s="53"/>
+        <v>0.26147619999999999</v>
+      </c>
+      <c r="G4" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="52">
-        <v>0.10219993442297</v>
+        <v>0.1021999</v>
       </c>
       <c r="D5" s="52">
-        <v>0.21722365915775299</v>
+        <v>0.21722369999999999</v>
       </c>
       <c r="E5" s="52">
         <f>1-SUM(E2:E4)</f>
-        <v>0.45389956235885598</v>
+        <v>0.45389960000000007</v>
       </c>
       <c r="F5" s="52">
         <f>1-SUM(F2:F4)</f>
-        <v>0.73852378129959106</v>
+        <v>0.73852380000000006</v>
       </c>
       <c r="G5" s="52">
         <f>1-SUM(G2:G4)</f>
@@ -40435,7 +40305,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -40452,10 +40322,10 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -40472,10 +40342,10 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -40492,7 +40362,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>90</v>
       </c>
@@ -40506,7 +40376,7 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>129</v>
       </c>
@@ -40520,7 +40390,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -40537,7 +40407,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
@@ -40551,7 +40421,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
@@ -40568,7 +40438,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>134</v>
       </c>
@@ -40613,7 +40483,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>137</v>
       </c>
@@ -40621,7 +40491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>138</v>
       </c>
@@ -40629,7 +40499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>139</v>
       </c>
@@ -40637,7 +40507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>140</v>
       </c>
@@ -40645,7 +40515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>141</v>
       </c>
@@ -40653,7 +40523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>142</v>
       </c>
@@ -40719,7 +40589,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>67</v>
       </c>
@@ -40732,7 +40602,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>77</v>
       </c>
@@ -40745,7 +40615,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>78</v>
       </c>
@@ -40756,7 +40626,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>79</v>
       </c>
@@ -40767,7 +40637,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>150</v>
       </c>
@@ -40789,7 +40659,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>67</v>
       </c>
@@ -40800,7 +40670,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>77</v>
       </c>
@@ -40811,7 +40681,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>78</v>
       </c>
@@ -40824,7 +40694,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>79</v>
       </c>
@@ -40837,7 +40707,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>150</v>
       </c>
@@ -40861,7 +40731,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>67</v>
       </c>
@@ -40874,7 +40744,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>77</v>
       </c>
@@ -40887,7 +40757,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>78</v>
       </c>
@@ -40900,7 +40770,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>79</v>
       </c>
@@ -40913,7 +40783,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>150</v>
       </c>
@@ -40989,4 +40859,195 @@
   <sheetProtection algorithmName="SHA-512" hashValue="tS5A5il384gB8zsJjwidwZIpdVsJo/ah59cRAmnHpig36ZssdSIeiIXxiNqdW+7yhHG743nXUgYflxFLjdX6Kg==" saltValue="H9BMcvjdiLgSEjFGZvTrQw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100856A3DB4B0A5FF4A85E5854FA9B1BD84" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="107b52809c0cc4b5077f1ac81d3c69cc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5de2aea6-bdc3-4e5f-b0ae-84d85b5764e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82b7e1b740270cfb0676be859a78f3d0" ns2:_="">
+    <xsd:import namespace="5de2aea6-bdc3-4e5f-b0ae-84d85b5764e4"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5de2aea6-bdc3-4e5f-b0ae-84d85b5764e4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C35CB22-E1DD-4CD6-966E-FF0030606BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5de2aea6-bdc3-4e5f-b0ae-84d85b5764e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6ACDF51-5686-457D-9ACF-EECBF2237F30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>